--- a/data/1M/Belgium 1M.xlsx
+++ b/data/1M/Belgium 1M.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -67,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -566,7 +569,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42035</v>
       </c>
       <c r="B2" t="n">
@@ -637,7 +640,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42063</v>
       </c>
       <c r="B3" t="n">
@@ -708,7 +711,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42094</v>
       </c>
       <c r="B4" t="n">
@@ -779,7 +782,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42124</v>
       </c>
       <c r="B5" t="n">
@@ -850,7 +853,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42155</v>
       </c>
       <c r="B6" t="n">
@@ -921,7 +924,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42185</v>
       </c>
       <c r="B7" t="n">
@@ -992,7 +995,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42216</v>
       </c>
       <c r="B8" t="n">
@@ -1063,7 +1066,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42247</v>
       </c>
       <c r="B9" t="n">
@@ -1134,7 +1137,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42277</v>
       </c>
       <c r="B10" t="n">
@@ -1205,7 +1208,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42308</v>
       </c>
       <c r="B11" t="n">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42338</v>
       </c>
       <c r="B12" t="n">
@@ -1347,7 +1350,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42369</v>
       </c>
       <c r="B13" t="n">
@@ -1428,7 +1431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="B2" t="n">
@@ -1553,7 +1556,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45351</v>
       </c>
       <c r="B3" t="n">
@@ -1597,7 +1600,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45382</v>
       </c>
       <c r="B4" t="n">
@@ -1641,7 +1644,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="B5" t="n">
@@ -1685,7 +1688,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="B6" t="n">
@@ -1729,47 +1732,91 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45473</v>
       </c>
       <c r="B7" t="n">
-        <v>46838</v>
+        <v>53606</v>
       </c>
       <c r="C7" t="n">
-        <v>675714</v>
+        <v>769332</v>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E7" t="n">
-        <v>55232</v>
+        <v>63524</v>
       </c>
       <c r="F7" t="n">
-        <v>-75575</v>
+        <v>-86140</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H7" t="n">
-        <v>2222166</v>
+        <v>2531576</v>
       </c>
       <c r="I7" t="n">
-        <v>390035</v>
+        <v>453762</v>
       </c>
       <c r="J7" t="n">
-        <v>1058297</v>
+        <v>1201711</v>
       </c>
       <c r="K7" t="n">
-        <v>147777</v>
+        <v>175666</v>
       </c>
       <c r="L7" t="n">
-        <v>336788</v>
+        <v>373490</v>
       </c>
       <c r="M7" t="n">
-        <v>-1640</v>
+        <v>-2312</v>
       </c>
       <c r="N7" t="n">
-        <v>249229</v>
+        <v>273756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4748</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61967</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9405</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-11836</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>318222</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33136</v>
+      </c>
+      <c r="J8" t="n">
+        <v>92540</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12886</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46405</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31699</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1916,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42400</v>
       </c>
       <c r="B2" t="n">
@@ -1916,7 +1963,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42429</v>
       </c>
       <c r="B3" t="n">
@@ -1963,7 +2010,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42460</v>
       </c>
       <c r="B4" t="n">
@@ -2010,7 +2057,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42490</v>
       </c>
       <c r="B5" t="n">
@@ -2057,7 +2104,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="B6" t="n">
@@ -2104,7 +2151,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42551</v>
       </c>
       <c r="B7" t="n">
@@ -2151,7 +2198,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42582</v>
       </c>
       <c r="B8" t="n">
@@ -2198,7 +2245,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="B9" t="n">
@@ -2245,7 +2292,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42643</v>
       </c>
       <c r="B10" t="n">
@@ -2292,7 +2339,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42674</v>
       </c>
       <c r="B11" t="n">
@@ -2339,7 +2386,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42704</v>
       </c>
       <c r="B12" t="n">
@@ -2386,7 +2433,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42735</v>
       </c>
       <c r="B13" t="n">
@@ -2529,7 +2576,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="B2" t="n">
@@ -2576,7 +2623,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42794</v>
       </c>
       <c r="B3" t="n">
@@ -2623,7 +2670,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42825</v>
       </c>
       <c r="B4" t="n">
@@ -2670,7 +2717,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42855</v>
       </c>
       <c r="B5" t="n">
@@ -2717,7 +2764,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42886</v>
       </c>
       <c r="B6" t="n">
@@ -2764,7 +2811,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42916</v>
       </c>
       <c r="B7" t="n">
@@ -2811,7 +2858,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="B8" t="n">
@@ -2858,7 +2905,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42978</v>
       </c>
       <c r="B9" t="n">
@@ -2905,7 +2952,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43008</v>
       </c>
       <c r="B10" t="n">
@@ -2952,7 +2999,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43039</v>
       </c>
       <c r="B11" t="n">
@@ -2999,7 +3046,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43069</v>
       </c>
       <c r="B12" t="n">
@@ -3046,7 +3093,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43100</v>
       </c>
       <c r="B13" t="n">
@@ -3189,7 +3236,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43131</v>
       </c>
       <c r="B2" t="n">
@@ -3236,7 +3283,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43159</v>
       </c>
       <c r="B3" t="n">
@@ -3283,7 +3330,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43190</v>
       </c>
       <c r="B4" t="n">
@@ -3330,7 +3377,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43220</v>
       </c>
       <c r="B5" t="n">
@@ -3377,7 +3424,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43251</v>
       </c>
       <c r="B6" t="n">
@@ -3424,7 +3471,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43281</v>
       </c>
       <c r="B7" t="n">
@@ -3471,7 +3518,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="B8" t="n">
@@ -3518,7 +3565,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43343</v>
       </c>
       <c r="B9" t="n">
@@ -3565,7 +3612,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43373</v>
       </c>
       <c r="B10" t="n">
@@ -3612,7 +3659,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43404</v>
       </c>
       <c r="B11" t="n">
@@ -3659,7 +3706,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43434</v>
       </c>
       <c r="B12" t="n">
@@ -3706,7 +3753,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43465</v>
       </c>
       <c r="B13" t="n">
@@ -3849,7 +3896,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -3896,7 +3943,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43524</v>
       </c>
       <c r="B3" t="n">
@@ -3943,7 +3990,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43555</v>
       </c>
       <c r="B4" t="n">
@@ -3990,7 +4037,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43585</v>
       </c>
       <c r="B5" t="n">
@@ -4037,7 +4084,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43616</v>
       </c>
       <c r="B6" t="n">
@@ -4084,7 +4131,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43646</v>
       </c>
       <c r="B7" t="n">
@@ -4131,7 +4178,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="B8" t="n">
@@ -4178,7 +4225,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43708</v>
       </c>
       <c r="B9" t="n">
@@ -4225,7 +4272,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="B10" t="n">
@@ -4272,7 +4319,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="B11" t="n">
@@ -4319,7 +4366,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43799</v>
       </c>
       <c r="B12" t="n">
@@ -4366,7 +4413,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43830</v>
       </c>
       <c r="B13" t="n">
@@ -4504,7 +4551,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43861</v>
       </c>
       <c r="B2" t="n">
@@ -4548,7 +4595,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B3" t="n">
@@ -4592,7 +4639,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B4" t="n">
@@ -4636,7 +4683,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B5" t="n">
@@ -4680,7 +4727,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43982</v>
       </c>
       <c r="B6" t="n">
@@ -4724,7 +4771,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44012</v>
       </c>
       <c r="B7" t="n">
@@ -4768,7 +4815,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44043</v>
       </c>
       <c r="B8" t="n">
@@ -4812,7 +4859,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44074</v>
       </c>
       <c r="B9" t="n">
@@ -4856,7 +4903,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44104</v>
       </c>
       <c r="B10" t="n">
@@ -4900,7 +4947,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44135</v>
       </c>
       <c r="B11" t="n">
@@ -4944,7 +4991,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44165</v>
       </c>
       <c r="B12" t="n">
@@ -4988,7 +5035,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="B13" t="n">
@@ -5123,7 +5170,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44227</v>
       </c>
       <c r="B2" t="n">
@@ -5167,7 +5214,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="B3" t="n">
@@ -5211,7 +5258,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44286</v>
       </c>
       <c r="B4" t="n">
@@ -5255,7 +5302,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B5" t="n">
@@ -5299,7 +5346,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" t="n">
@@ -5343,7 +5390,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B7" t="n">
@@ -5387,7 +5434,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B8" t="n">
@@ -5431,7 +5478,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B9" t="n">
@@ -5475,7 +5522,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B10" t="n">
@@ -5519,7 +5566,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44500</v>
       </c>
       <c r="B11" t="n">
@@ -5563,7 +5610,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B12" t="n">
@@ -5607,7 +5654,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B13" t="n">
@@ -5742,7 +5789,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B2" t="n">
@@ -5786,7 +5833,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B3" t="n">
@@ -5830,7 +5877,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B4" t="n">
@@ -5874,7 +5921,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="B5" t="n">
@@ -5918,7 +5965,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B6" t="n">
@@ -5962,7 +6009,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B7" t="n">
@@ -6006,7 +6053,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="B8" t="n">
@@ -6050,7 +6097,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B9" t="n">
@@ -6094,7 +6141,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="B10" t="n">
@@ -6138,7 +6185,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B11" t="n">
@@ -6182,7 +6229,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B12" t="n">
@@ -6226,7 +6273,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B13" t="n">
@@ -6361,7 +6408,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B2" t="n">
@@ -6405,7 +6452,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B3" t="n">
@@ -6449,7 +6496,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B4" t="n">
@@ -6493,7 +6540,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B5" t="n">
@@ -6537,7 +6584,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B6" t="n">
@@ -6581,7 +6628,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B7" t="n">
@@ -6625,7 +6672,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B8" t="n">
@@ -6669,7 +6716,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B9" t="n">
@@ -6713,7 +6760,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B10" t="n">
@@ -6757,7 +6804,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="B11" t="n">
@@ -6801,7 +6848,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="B12" t="n">
@@ -6845,7 +6892,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45291</v>
       </c>
       <c r="B13" t="n">
@@ -7126,9 +7173,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA80408-F935-4AB4-BA82-F9B051222056}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D13E22-FF4C-4598-B625-4F70C4CF0D7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D114AA-F178-4E05-A558-8248C2518955}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E177034-D2FB-4BDE-AFAA-192961ABDCF2}"/>
 </file>